--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R202_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R202_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -564,10 +576,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -611,28 +623,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -657,28 +669,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1172,10 +1184,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1219,28 +1231,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1265,28 +1277,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1983,10 +1995,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2030,28 +2042,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2076,28 +2088,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2446,10 +2458,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="J80" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2493,28 +2505,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2539,28 +2551,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2967,10 +2979,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="J98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3014,28 +3026,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3060,28 +3072,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3372,10 +3384,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="J112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3419,28 +3431,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3465,28 +3477,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3690,10 +3702,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="J123" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3737,28 +3749,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3783,28 +3795,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3979,10 +3991,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="J133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4026,28 +4038,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4072,28 +4084,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4297,10 +4309,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
+      <c r="J144" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K144" s="2" t="s">
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4344,28 +4356,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4390,28 +4402,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4470,10 +4482,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
+      <c r="J150" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="2" t="s">
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4517,28 +4529,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4563,28 +4575,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4643,10 +4655,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
